--- a/xls/normalisierung.xlsx
+++ b/xls/normalisierung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="144">
   <si>
     <t>INDEX</t>
   </si>
@@ -179,13 +179,283 @@
     <t>1,43€/55L</t>
   </si>
   <si>
-    <t>hallo</t>
-  </si>
-  <si>
-    <t>haaaaaalloo</t>
-  </si>
-  <si>
-    <t>hsduk</t>
+    <t>1.Normalform</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>PLZ</t>
+  </si>
+  <si>
+    <t>Ort</t>
+  </si>
+  <si>
+    <t>Straße</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Marke</t>
+  </si>
+  <si>
+    <t>Modell</t>
+  </si>
+  <si>
+    <t>Baujahr</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Kraftstoff</t>
+  </si>
+  <si>
+    <t>T Land</t>
+  </si>
+  <si>
+    <t>T Ort</t>
+  </si>
+  <si>
+    <t>T PLZ</t>
+  </si>
+  <si>
+    <t>T Straße</t>
+  </si>
+  <si>
+    <t>T Name</t>
+  </si>
+  <si>
+    <t>Preis pro l</t>
+  </si>
+  <si>
+    <t>duty</t>
+  </si>
+  <si>
+    <t>c-date</t>
+  </si>
+  <si>
+    <t>u-date</t>
+  </si>
+  <si>
+    <t>Hoffmann</t>
+  </si>
+  <si>
+    <t>Benzschawel</t>
+  </si>
+  <si>
+    <t>McKinnock</t>
+  </si>
+  <si>
+    <t>Watermann</t>
+  </si>
+  <si>
+    <t>Johanna</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Julius</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Buxdehude</t>
+  </si>
+  <si>
+    <t>Irgendwo</t>
+  </si>
+  <si>
+    <t>Musterstadt</t>
+  </si>
+  <si>
+    <t>Nordstadt</t>
+  </si>
+  <si>
+    <t>Steinwiese 1</t>
+  </si>
+  <si>
+    <t>Steinwiese 10</t>
+  </si>
+  <si>
+    <t>Kaiserweg 11</t>
+  </si>
+  <si>
+    <t>Lakaienweg 20 b</t>
+  </si>
+  <si>
+    <t>Johanna.hoffmann@gmail.com</t>
+  </si>
+  <si>
+    <t>Porsche</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>VW</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>Golf1</t>
+  </si>
+  <si>
+    <t>Golf3</t>
+  </si>
+  <si>
+    <t>S60</t>
+  </si>
+  <si>
+    <t>Traktor</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>250PS</t>
+  </si>
+  <si>
+    <t>160PS</t>
+  </si>
+  <si>
+    <t>75PS</t>
+  </si>
+  <si>
+    <t>175PS</t>
+  </si>
+  <si>
+    <t>10PS</t>
+  </si>
+  <si>
+    <t>Benzin</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Titzlingen</t>
+  </si>
+  <si>
+    <t>Niederingen</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Höhenweg</t>
+  </si>
+  <si>
+    <t>Tiefweg</t>
+  </si>
+  <si>
+    <t>Bahnhofstraße</t>
+  </si>
+  <si>
+    <t>Wasserstraße</t>
+  </si>
+  <si>
+    <t>Engelstraße</t>
+  </si>
+  <si>
+    <t>Südalle</t>
+  </si>
+  <si>
+    <t>Industriestraße</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>JET</t>
+  </si>
+  <si>
+    <t>ESSO</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>SHELL</t>
+  </si>
+  <si>
+    <t>ARAL</t>
+  </si>
+  <si>
+    <t>2.Normalform</t>
+  </si>
+  <si>
+    <t>Info Person</t>
+  </si>
+  <si>
+    <t>Steinwiese1</t>
+  </si>
+  <si>
+    <t>Steinwiese10</t>
+  </si>
+  <si>
+    <t>Kaiserweg11</t>
+  </si>
+  <si>
+    <t>Lakaienweg20b</t>
+  </si>
+  <si>
+    <t>Email Person</t>
+  </si>
+  <si>
+    <t>email addresse</t>
+  </si>
+  <si>
+    <t>Passwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marke </t>
+  </si>
+  <si>
+    <t>Auto 1</t>
+  </si>
+  <si>
+    <t>Auto 2</t>
+  </si>
+  <si>
+    <t>Benzin98</t>
+  </si>
+  <si>
+    <t>Benzin95</t>
+  </si>
+  <si>
+    <t>Benzin104</t>
+  </si>
+  <si>
+    <t>Tankstelle</t>
   </si>
 </sst>
 </file>
@@ -195,7 +465,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -209,6 +479,26 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -230,16 +520,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,30 +848,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K18"/>
+  <dimension ref="A2:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="2"/>
-    <col min="2" max="2" width="20.85546875" style="2"/>
+    <col min="2" max="2" width="31" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" style="2"/>
     <col min="4" max="4" width="29.5703125" style="2"/>
     <col min="5" max="5" width="11.5703125" style="2"/>
     <col min="6" max="6" width="39" style="2"/>
     <col min="7" max="7" width="38.140625" style="2"/>
-    <col min="8" max="8" width="11.85546875" style="2"/>
-    <col min="9" max="9" width="7.5703125" style="2"/>
-    <col min="10" max="10" width="10" style="2"/>
+    <col min="8" max="8" width="30.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" style="2"/>
-    <col min="12" max="1025" width="11.5703125" style="2"/>
+    <col min="12" max="17" width="11.5703125" style="2"/>
+    <col min="18" max="18" width="14.42578125" style="2" customWidth="1"/>
+    <col min="19" max="1025" width="11.5703125" style="2"/>
     <col min="1026" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -640,11 +938,11 @@
       </c>
       <c r="J3" s="3">
         <f ca="1">TODAY()</f>
-        <v>43017</v>
+        <v>43018</v>
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -679,7 +977,7 @@
         <v>42937</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -712,7 +1010,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -743,7 +1041,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -776,10 +1074,10 @@
       </c>
       <c r="K7" s="3">
         <f ca="1">TODAY()</f>
-        <v>43017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -812,7 +1110,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -847,7 +1145,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -882,7 +1180,7 @@
         <v>42934</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -915,24 +1213,1269 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2">
+        <v>58774</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="2">
+        <v>911</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2011</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>9854</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="V16" s="3">
+        <f ca="1">TODAY()</f>
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="2">
+        <v>98841</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2004</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>9654</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="V17" s="3">
+        <v>42935</v>
+      </c>
+      <c r="W17" s="3">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="2">
+        <v>78823</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1985</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>9854</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="V18" s="3">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="5">
+        <v>12554</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1994</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>12554</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="5">
+        <v>12554</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1994</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>58774</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="V20" s="3">
+        <v>42987</v>
+      </c>
+      <c r="W20" s="3">
+        <f ca="1">TODAY()</f>
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="5">
+        <v>98441</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="5">
+        <v>2010</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>78823</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="V21" s="3">
+        <v>42630</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="5">
+        <v>58774</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="2">
+        <v>911</v>
+      </c>
+      <c r="L22" s="5">
+        <v>2011</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>78823</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="V22" s="3">
+        <v>42826</v>
+      </c>
+      <c r="W22" s="3">
+        <v>42857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="5">
+        <v>58774</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1955</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>98542</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U23" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="V23" s="3">
+        <v>42125</v>
+      </c>
+      <c r="W23" s="3">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>9</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="5">
+        <v>78823</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L24" s="5">
+        <v>2006</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>12554</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="V24" s="3">
+        <v>42432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="2">
+        <v>58774</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>2</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="2">
+        <v>98841</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>3</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="2">
+        <v>78823</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="5">
+        <v>12554</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>1</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2">
+        <v>911</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>2</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2004</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>3</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1985</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>4</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1994</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1955</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>2</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>3</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2006</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="2">
+        <v>9854</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="2">
+        <v>9654</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="2">
+        <v>9854</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="5">
+        <v>12554</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="5">
+        <v>58774</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="5">
+        <v>78823</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="5">
+        <v>78823</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="5">
+        <v>98542</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="5">
+        <v>12554</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H16" r:id="rId1" xr:uid="{7AA1CFDB-7995-49EB-8826-281DF505F95F}"/>
+    <hyperlink ref="B39" r:id="rId2" xr:uid="{8A82FA5A-4B64-4269-AD59-8E883DC4317C}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
